--- a/data/pca/factorExposure/factorExposure_2015-02-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01846886585793744</v>
+        <v>-0.01117269367689407</v>
       </c>
       <c r="C2">
-        <v>-0.03929426143687284</v>
+        <v>-0.05429535121252096</v>
       </c>
       <c r="D2">
-        <v>0.1177237226300018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08136300486407193</v>
+      </c>
+      <c r="E2">
+        <v>-0.07667307257121803</v>
+      </c>
+      <c r="F2">
+        <v>-0.03904082914905559</v>
+      </c>
+      <c r="G2">
+        <v>-0.1573319930225792</v>
+      </c>
+      <c r="H2">
+        <v>0.02461556625387714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04689500043139513</v>
+        <v>-0.02018722906963498</v>
       </c>
       <c r="C4">
-        <v>-0.08101470333695121</v>
+        <v>-0.1170774310755157</v>
       </c>
       <c r="D4">
-        <v>0.08482439579099467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08589981664899457</v>
+      </c>
+      <c r="E4">
+        <v>-0.08997458612960807</v>
+      </c>
+      <c r="F4">
+        <v>-0.09658818068270467</v>
+      </c>
+      <c r="G4">
+        <v>-0.008903119898490578</v>
+      </c>
+      <c r="H4">
+        <v>-0.07334668808216294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02963873441357017</v>
+        <v>-0.03411950302524037</v>
       </c>
       <c r="C6">
-        <v>-0.02102444983416706</v>
+        <v>-0.0413661012184294</v>
       </c>
       <c r="D6">
-        <v>0.0908890283677177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0702423022018725</v>
+      </c>
+      <c r="E6">
+        <v>-0.1111514822790668</v>
+      </c>
+      <c r="F6">
+        <v>-0.04796571859090727</v>
+      </c>
+      <c r="G6">
+        <v>0.007708300893007509</v>
+      </c>
+      <c r="H6">
+        <v>0.01659795452579987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.002551106788361101</v>
+        <v>-0.006181666712719711</v>
       </c>
       <c r="C7">
-        <v>-0.03364516525449021</v>
+        <v>-0.04632361565237357</v>
       </c>
       <c r="D7">
-        <v>0.07238922714913677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05028002971638081</v>
+      </c>
+      <c r="E7">
+        <v>-0.09270552304451402</v>
+      </c>
+      <c r="F7">
+        <v>-0.01149702649997322</v>
+      </c>
+      <c r="G7">
+        <v>0.005841738794806702</v>
+      </c>
+      <c r="H7">
+        <v>-0.02455738521199287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0001701933568132759</v>
+        <v>0.006085986243122543</v>
       </c>
       <c r="C8">
-        <v>-0.03215022420249903</v>
+        <v>-0.04084586171470544</v>
       </c>
       <c r="D8">
-        <v>0.0700354385639194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04185693149595168</v>
+      </c>
+      <c r="E8">
+        <v>-0.06802821769040956</v>
+      </c>
+      <c r="F8">
+        <v>-0.05225847359330019</v>
+      </c>
+      <c r="G8">
+        <v>-0.06140937471824044</v>
+      </c>
+      <c r="H8">
+        <v>-0.04997373391575548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03354354361564411</v>
+        <v>-0.01315593121891141</v>
       </c>
       <c r="C9">
-        <v>-0.07238711392543851</v>
+        <v>-0.09668620466047588</v>
       </c>
       <c r="D9">
-        <v>0.08999711958433855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07548299300261044</v>
+      </c>
+      <c r="E9">
+        <v>-0.07757409200148942</v>
+      </c>
+      <c r="F9">
+        <v>-0.06874402836811194</v>
+      </c>
+      <c r="G9">
+        <v>0.002143429029845737</v>
+      </c>
+      <c r="H9">
+        <v>-0.02004523129817358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1985352779837164</v>
+        <v>-0.2438444093224806</v>
       </c>
       <c r="C10">
-        <v>0.1517146975322648</v>
+        <v>0.0891297190534697</v>
       </c>
       <c r="D10">
-        <v>-0.04584155957106369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008135785717273294</v>
+      </c>
+      <c r="E10">
+        <v>0.02883326421462791</v>
+      </c>
+      <c r="F10">
+        <v>-0.0376144469110451</v>
+      </c>
+      <c r="G10">
+        <v>0.01559932793489333</v>
+      </c>
+      <c r="H10">
+        <v>-0.0005889200701784927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01096574742843775</v>
+        <v>-0.0092317446495946</v>
       </c>
       <c r="C11">
-        <v>-0.04158168598612708</v>
+        <v>-0.06075385643378697</v>
       </c>
       <c r="D11">
-        <v>0.04153511096605596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02760990164215532</v>
+      </c>
+      <c r="E11">
+        <v>-0.05391852243184361</v>
+      </c>
+      <c r="F11">
+        <v>0.001106768305855741</v>
+      </c>
+      <c r="G11">
+        <v>0.009973072804822833</v>
+      </c>
+      <c r="H11">
+        <v>-0.009506730241297612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01026604454062913</v>
+        <v>-0.009962827068358203</v>
       </c>
       <c r="C12">
-        <v>-0.04304084788461858</v>
+        <v>-0.05143230290472653</v>
       </c>
       <c r="D12">
-        <v>0.0501285250616033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03322223917608229</v>
+      </c>
+      <c r="E12">
+        <v>-0.045176653259845</v>
+      </c>
+      <c r="F12">
+        <v>0.0035831016660419</v>
+      </c>
+      <c r="G12">
+        <v>0.007119882782599083</v>
+      </c>
+      <c r="H12">
+        <v>0.02334658193440447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01226644117512074</v>
+        <v>-0.003861841982149115</v>
       </c>
       <c r="C13">
-        <v>-0.03506270280476574</v>
+        <v>-0.06733906080979912</v>
       </c>
       <c r="D13">
-        <v>0.1169754944564142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1164135774669146</v>
+      </c>
+      <c r="E13">
+        <v>-0.1041460657387027</v>
+      </c>
+      <c r="F13">
+        <v>-0.03300366259721886</v>
+      </c>
+      <c r="G13">
+        <v>-0.05069449634367199</v>
+      </c>
+      <c r="H13">
+        <v>0.07772966091286243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009682345472723375</v>
+        <v>-0.002291139553936322</v>
       </c>
       <c r="C14">
-        <v>-0.01877829946602484</v>
+        <v>-0.03641900777180186</v>
       </c>
       <c r="D14">
-        <v>0.06282075119918129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.05388622774068368</v>
+      </c>
+      <c r="E14">
+        <v>-0.1100999063446378</v>
+      </c>
+      <c r="F14">
+        <v>-0.03980440097470428</v>
+      </c>
+      <c r="G14">
+        <v>-0.01562910475406213</v>
+      </c>
+      <c r="H14">
+        <v>0.04391050448473331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002560463119119016</v>
+        <v>0.004421698040110855</v>
       </c>
       <c r="C15">
-        <v>-0.01238533568037539</v>
+        <v>-0.03179519018844228</v>
       </c>
       <c r="D15">
-        <v>0.05140399952994355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04876071616297004</v>
+      </c>
+      <c r="E15">
+        <v>-0.05829034779624408</v>
+      </c>
+      <c r="F15">
+        <v>-0.01292664577807107</v>
+      </c>
+      <c r="G15">
+        <v>-0.01983164983220729</v>
+      </c>
+      <c r="H15">
+        <v>-0.01012290349987524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01054024971718867</v>
+        <v>-0.008996074986610493</v>
       </c>
       <c r="C16">
-        <v>-0.04079823018812182</v>
+        <v>-0.05342339203011564</v>
       </c>
       <c r="D16">
-        <v>0.04565346140372546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.03001501244241027</v>
+      </c>
+      <c r="E16">
+        <v>-0.04884890097349505</v>
+      </c>
+      <c r="F16">
+        <v>0.00340360268353116</v>
+      </c>
+      <c r="G16">
+        <v>0.02344005349470063</v>
+      </c>
+      <c r="H16">
+        <v>0.002409759578871732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001153144015080018</v>
+        <v>0.001342603267891472</v>
       </c>
       <c r="C19">
-        <v>-0.01920234942675038</v>
+        <v>-0.01511633309324622</v>
       </c>
       <c r="D19">
-        <v>0.05134976180824664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02708771023921528</v>
+      </c>
+      <c r="E19">
+        <v>-0.01042194489757344</v>
+      </c>
+      <c r="F19">
+        <v>-0.01109570409430696</v>
+      </c>
+      <c r="G19">
+        <v>-0.0262643596165082</v>
+      </c>
+      <c r="H19">
+        <v>0.0121617033575907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0005129572803202392</v>
+        <v>-0.004563098062872614</v>
       </c>
       <c r="C20">
-        <v>-0.03088774351508985</v>
+        <v>-0.04756853528568265</v>
       </c>
       <c r="D20">
-        <v>0.05632292409325489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05692594672734384</v>
+      </c>
+      <c r="E20">
+        <v>-0.06606020035436223</v>
+      </c>
+      <c r="F20">
+        <v>-0.02460124655545235</v>
+      </c>
+      <c r="G20">
+        <v>0.02178968816887024</v>
+      </c>
+      <c r="H20">
+        <v>-0.02041882517394164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005504786057745149</v>
+        <v>-0.002819336333427507</v>
       </c>
       <c r="C21">
-        <v>-0.03270609563293949</v>
+        <v>-0.04925569194315515</v>
       </c>
       <c r="D21">
-        <v>0.09450466521282325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08536268189143327</v>
+      </c>
+      <c r="E21">
+        <v>-0.08969840121392463</v>
+      </c>
+      <c r="F21">
+        <v>-0.1063289125676606</v>
+      </c>
+      <c r="G21">
+        <v>-0.07275760015250887</v>
+      </c>
+      <c r="H21">
+        <v>0.08899393269902363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003893173057834462</v>
+        <v>0.008832128036747428</v>
       </c>
       <c r="C22">
-        <v>-0.05710895175900399</v>
+        <v>-0.0851094158420047</v>
       </c>
       <c r="D22">
-        <v>0.2024703128961144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.192435796180338</v>
+      </c>
+      <c r="E22">
+        <v>-0.1274247469790103</v>
+      </c>
+      <c r="F22">
+        <v>-0.05639961165174615</v>
+      </c>
+      <c r="G22">
+        <v>-0.228826129697329</v>
+      </c>
+      <c r="H22">
+        <v>-0.2009100510301932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004299760576347577</v>
+        <v>0.005725353737988905</v>
       </c>
       <c r="C23">
-        <v>-0.05755874911251738</v>
+        <v>-0.08727933393775404</v>
       </c>
       <c r="D23">
-        <v>0.201574560025543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1959108328456981</v>
+      </c>
+      <c r="E23">
+        <v>-0.1249056355665654</v>
+      </c>
+      <c r="F23">
+        <v>-0.05906253339442252</v>
+      </c>
+      <c r="G23">
+        <v>-0.2230717085094002</v>
+      </c>
+      <c r="H23">
+        <v>-0.1920006214700417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01687742090575781</v>
+        <v>-0.01024828698963482</v>
       </c>
       <c r="C24">
-        <v>-0.061339486684864</v>
+        <v>-0.07101490649774719</v>
       </c>
       <c r="D24">
-        <v>0.05778920266690838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0273067377846269</v>
+      </c>
+      <c r="E24">
+        <v>-0.06095465209084499</v>
+      </c>
+      <c r="F24">
+        <v>-0.0001210817718382012</v>
+      </c>
+      <c r="G24">
+        <v>0.001196832753652902</v>
+      </c>
+      <c r="H24">
+        <v>-0.0007043281767690598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01639415737077929</v>
+        <v>-0.01443291775910225</v>
       </c>
       <c r="C25">
-        <v>-0.05306891140269426</v>
+        <v>-0.06522598457533728</v>
       </c>
       <c r="D25">
-        <v>0.04477982457832194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03183561332139804</v>
+      </c>
+      <c r="E25">
+        <v>-0.04295387835311855</v>
+      </c>
+      <c r="F25">
+        <v>-0.002328314794471082</v>
+      </c>
+      <c r="G25">
+        <v>0.0139969016753714</v>
+      </c>
+      <c r="H25">
+        <v>-0.00117281979450834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006596419096264931</v>
+        <v>-0.01694052659212238</v>
       </c>
       <c r="C26">
-        <v>-0.01998124826656429</v>
+        <v>-0.03485680766013137</v>
       </c>
       <c r="D26">
-        <v>0.05158442705426319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03292056810767408</v>
+      </c>
+      <c r="E26">
+        <v>-0.0794884527446852</v>
+      </c>
+      <c r="F26">
+        <v>-0.05303162933704615</v>
+      </c>
+      <c r="G26">
+        <v>-0.0206069971653134</v>
+      </c>
+      <c r="H26">
+        <v>0.003691191407008094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2791778592124157</v>
+        <v>-0.312182503937506</v>
       </c>
       <c r="C28">
-        <v>0.1706076172554627</v>
+        <v>0.0931531600165774</v>
       </c>
       <c r="D28">
-        <v>-0.00618382635150151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.00439953633017471</v>
+      </c>
+      <c r="E28">
+        <v>0.05148056857476364</v>
+      </c>
+      <c r="F28">
+        <v>-0.05721992265463461</v>
+      </c>
+      <c r="G28">
+        <v>-0.05553048065336833</v>
+      </c>
+      <c r="H28">
+        <v>-0.04391773408311696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001034205522593973</v>
+        <v>-0.00127163815310761</v>
       </c>
       <c r="C29">
-        <v>-0.02183305773681236</v>
+        <v>-0.04245491875197013</v>
       </c>
       <c r="D29">
-        <v>0.06746196704570803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.06200400326006584</v>
+      </c>
+      <c r="E29">
+        <v>-0.1231395617480112</v>
+      </c>
+      <c r="F29">
+        <v>-0.04584913315358105</v>
+      </c>
+      <c r="G29">
+        <v>-0.004932125835670056</v>
+      </c>
+      <c r="H29">
+        <v>0.05993710705753957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02590741288029889</v>
+        <v>-0.01613706799452679</v>
       </c>
       <c r="C30">
-        <v>-0.07661532026114035</v>
+        <v>-0.1020647294849046</v>
       </c>
       <c r="D30">
-        <v>0.1398065896536473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09002404345177023</v>
+      </c>
+      <c r="E30">
+        <v>-0.1281957725029463</v>
+      </c>
+      <c r="F30">
+        <v>-0.02218703526896352</v>
+      </c>
+      <c r="G30">
+        <v>-0.002397063183311735</v>
+      </c>
+      <c r="H30">
+        <v>-0.0303220670826123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03107959303615479</v>
+        <v>-0.01036394520915962</v>
       </c>
       <c r="C31">
-        <v>-0.08727567226539412</v>
+        <v>-0.09650435840556991</v>
       </c>
       <c r="D31">
-        <v>0.04561804439859534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02038521032506055</v>
+      </c>
+      <c r="E31">
+        <v>-0.03291322606613762</v>
+      </c>
+      <c r="F31">
+        <v>-0.0184252045334172</v>
+      </c>
+      <c r="G31">
+        <v>-0.0173403625476733</v>
+      </c>
+      <c r="H31">
+        <v>-0.005928660388522773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01831775495144377</v>
+        <v>-0.01267585922092637</v>
       </c>
       <c r="C32">
-        <v>-0.04261270399483122</v>
+        <v>-0.05559721270724872</v>
       </c>
       <c r="D32">
-        <v>0.08334667505358798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07434502608362657</v>
+      </c>
+      <c r="E32">
+        <v>-0.03030228440559494</v>
+      </c>
+      <c r="F32">
+        <v>-0.05752726158555049</v>
+      </c>
+      <c r="G32">
+        <v>-0.04427868755252546</v>
+      </c>
+      <c r="H32">
+        <v>0.01457641831368207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004815238035426889</v>
+        <v>-0.006433553159410402</v>
       </c>
       <c r="C33">
-        <v>-0.04458246213737239</v>
+        <v>-0.06787786823645305</v>
       </c>
       <c r="D33">
-        <v>0.08873425448836587</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07993983520174236</v>
+      </c>
+      <c r="E33">
+        <v>-0.09419697992135803</v>
+      </c>
+      <c r="F33">
+        <v>-0.03712753477154146</v>
+      </c>
+      <c r="G33">
+        <v>-0.00317305591143481</v>
+      </c>
+      <c r="H33">
+        <v>0.005471192499086406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01176950310464453</v>
+        <v>-0.008513925731748693</v>
       </c>
       <c r="C34">
-        <v>-0.06084735967301894</v>
+        <v>-0.06195837084384576</v>
       </c>
       <c r="D34">
-        <v>0.05599470665015177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01439927998992574</v>
+      </c>
+      <c r="E34">
+        <v>-0.04400722372890981</v>
+      </c>
+      <c r="F34">
+        <v>0.03120950536351545</v>
+      </c>
+      <c r="G34">
+        <v>-0.0009600278114359245</v>
+      </c>
+      <c r="H34">
+        <v>0.009511925632393935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0005586971338288993</v>
+        <v>-0.00412870536660078</v>
       </c>
       <c r="C35">
-        <v>-0.0005225763845752378</v>
+        <v>-0.01755623020168893</v>
       </c>
       <c r="D35">
-        <v>0.003866643676959322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02713038957105114</v>
+      </c>
+      <c r="E35">
+        <v>-0.03416529676790371</v>
+      </c>
+      <c r="F35">
+        <v>-0.02575672374454055</v>
+      </c>
+      <c r="G35">
+        <v>0.006198197813253106</v>
+      </c>
+      <c r="H35">
+        <v>0.01865812195269184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006119859827744282</v>
+        <v>-0.0110133472481391</v>
       </c>
       <c r="C36">
-        <v>-0.01267116553499783</v>
+        <v>-0.02714620573372282</v>
       </c>
       <c r="D36">
-        <v>0.04993006753846862</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04511426331865189</v>
+      </c>
+      <c r="E36">
+        <v>-0.07090505018265698</v>
+      </c>
+      <c r="F36">
+        <v>-0.05281819479822422</v>
+      </c>
+      <c r="G36">
+        <v>-0.006541069976833109</v>
+      </c>
+      <c r="H36">
+        <v>0.007364077330835484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001532799073283206</v>
+        <v>-0.007391217389001108</v>
       </c>
       <c r="C38">
-        <v>-0.009498717885051477</v>
+        <v>-0.02948506226215672</v>
       </c>
       <c r="D38">
-        <v>0.07853222108820576</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07273841542432485</v>
+      </c>
+      <c r="E38">
+        <v>-0.07013332229723226</v>
+      </c>
+      <c r="F38">
+        <v>-0.01790174607833877</v>
+      </c>
+      <c r="G38">
+        <v>-0.01876566652887399</v>
+      </c>
+      <c r="H38">
+        <v>-0.03705267526433553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01494386621922278</v>
+        <v>-0.007596449048039129</v>
       </c>
       <c r="C39">
-        <v>-0.06499320549411991</v>
+        <v>-0.09315095883555742</v>
       </c>
       <c r="D39">
-        <v>0.09767984998711457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05317537315295114</v>
+      </c>
+      <c r="E39">
+        <v>-0.1111751809361751</v>
+      </c>
+      <c r="F39">
+        <v>0.005980996358297008</v>
+      </c>
+      <c r="G39">
+        <v>0.008955022778000881</v>
+      </c>
+      <c r="H39">
+        <v>0.01803318013807746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0148446716735303</v>
+        <v>-0.01296546300507469</v>
       </c>
       <c r="C40">
-        <v>-0.03002373694948723</v>
+        <v>-0.04534502294707349</v>
       </c>
       <c r="D40">
-        <v>0.1094533027986118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.06521682486874023</v>
+      </c>
+      <c r="E40">
+        <v>-0.08704456661907148</v>
+      </c>
+      <c r="F40">
+        <v>0.02522162450396551</v>
+      </c>
+      <c r="G40">
+        <v>-0.06707979214603055</v>
+      </c>
+      <c r="H40">
+        <v>0.01701062294787711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008160992421036553</v>
+        <v>-0.01663547812045234</v>
       </c>
       <c r="C41">
-        <v>-0.008597063487977534</v>
+        <v>-0.02669058441034773</v>
       </c>
       <c r="D41">
-        <v>0.02254685604646347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03235041838909337</v>
+      </c>
+      <c r="E41">
+        <v>-0.02535272642233657</v>
+      </c>
+      <c r="F41">
+        <v>-0.01835914001535504</v>
+      </c>
+      <c r="G41">
+        <v>-0.002013342810040226</v>
+      </c>
+      <c r="H41">
+        <v>-0.002841238885475277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003340391026945792</v>
+        <v>-0.007924685657376156</v>
       </c>
       <c r="C43">
-        <v>-0.006089490760806996</v>
+        <v>-0.02125984829640533</v>
       </c>
       <c r="D43">
-        <v>0.03822810361774417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03819776629351029</v>
+      </c>
+      <c r="E43">
+        <v>-0.0417170180319874</v>
+      </c>
+      <c r="F43">
+        <v>-0.02047585850704125</v>
+      </c>
+      <c r="G43">
+        <v>0.003271068057790666</v>
+      </c>
+      <c r="H43">
+        <v>-0.009388898278782877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01818447522714275</v>
+        <v>-0.008070677316751569</v>
       </c>
       <c r="C44">
-        <v>-0.03474455229645381</v>
+        <v>-0.05485711383097894</v>
       </c>
       <c r="D44">
-        <v>0.08654629470983372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07070353333444857</v>
+      </c>
+      <c r="E44">
+        <v>-0.09644347391674328</v>
+      </c>
+      <c r="F44">
+        <v>-0.04017322027282897</v>
+      </c>
+      <c r="G44">
+        <v>-0.03310997139776091</v>
+      </c>
+      <c r="H44">
+        <v>-0.02314792159005773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002955444200634012</v>
+        <v>0.0003804904314601209</v>
       </c>
       <c r="C46">
-        <v>-0.03221774790391876</v>
+        <v>-0.04423499250607289</v>
       </c>
       <c r="D46">
-        <v>0.06668191534380169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03832832303656804</v>
+      </c>
+      <c r="E46">
+        <v>-0.09258372820825844</v>
+      </c>
+      <c r="F46">
+        <v>-0.04065796213290924</v>
+      </c>
+      <c r="G46">
+        <v>-0.01594763784511971</v>
+      </c>
+      <c r="H46">
+        <v>0.01081753728363695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06672354339922994</v>
+        <v>-0.03055662312309095</v>
       </c>
       <c r="C47">
-        <v>-0.1133004545927253</v>
+        <v>-0.1238695150428937</v>
       </c>
       <c r="D47">
-        <v>0.0527672000245771</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01863451752606832</v>
+      </c>
+      <c r="E47">
+        <v>-0.005413221921435347</v>
+      </c>
+      <c r="F47">
+        <v>-0.004989897228937995</v>
+      </c>
+      <c r="G47">
+        <v>0.009660491029101298</v>
+      </c>
+      <c r="H47">
+        <v>-0.0181476729028976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004347023812011507</v>
+        <v>-0.01189011829989046</v>
       </c>
       <c r="C48">
-        <v>-0.01947931033656967</v>
+        <v>-0.03575587029043943</v>
       </c>
       <c r="D48">
-        <v>0.05257862827931799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04994247319481599</v>
+      </c>
+      <c r="E48">
+        <v>-0.07462897244965022</v>
+      </c>
+      <c r="F48">
+        <v>-0.06504654033290026</v>
+      </c>
+      <c r="G48">
+        <v>-0.01371538749707606</v>
+      </c>
+      <c r="H48">
+        <v>-0.003203297988872846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.002786018905502864</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005033076288876546</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.003387731338663948</v>
+      </c>
+      <c r="E49">
+        <v>3.790464057895035e-06</v>
+      </c>
+      <c r="F49">
+        <v>0.004620273548759076</v>
+      </c>
+      <c r="G49">
+        <v>0.01151513725850881</v>
+      </c>
+      <c r="H49">
+        <v>0.01086982998635591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03181195753281751</v>
+        <v>-0.0146809086132644</v>
       </c>
       <c r="C50">
-        <v>-0.05954340979056237</v>
+        <v>-0.07721081994653846</v>
       </c>
       <c r="D50">
-        <v>0.06443909265487194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03731832855319259</v>
+      </c>
+      <c r="E50">
+        <v>-0.04166806114062522</v>
+      </c>
+      <c r="F50">
+        <v>-0.01216302602636056</v>
+      </c>
+      <c r="G50">
+        <v>-0.01063718552670074</v>
+      </c>
+      <c r="H50">
+        <v>-0.02269980997079147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007008418680208552</v>
+        <v>0.00423488664157752</v>
       </c>
       <c r="C51">
-        <v>-0.007604877591829018</v>
+        <v>-0.02072882732130119</v>
       </c>
       <c r="D51">
-        <v>0.05166755981872386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.02145355669868771</v>
+      </c>
+      <c r="E51">
+        <v>-0.0635575258764485</v>
+      </c>
+      <c r="F51">
+        <v>-0.03283199958365962</v>
+      </c>
+      <c r="G51">
+        <v>-0.03836960283289578</v>
+      </c>
+      <c r="H51">
+        <v>0.003205073503087884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1017326683753836</v>
+        <v>-0.05957161380674249</v>
       </c>
       <c r="C53">
-        <v>-0.1395201747211909</v>
+        <v>-0.1642962273569495</v>
       </c>
       <c r="D53">
-        <v>-0.005580885887678297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02055968115276266</v>
+      </c>
+      <c r="E53">
+        <v>0.03256263913640463</v>
+      </c>
+      <c r="F53">
+        <v>-0.03252961805892401</v>
+      </c>
+      <c r="G53">
+        <v>-0.003647623252116242</v>
+      </c>
+      <c r="H53">
+        <v>-0.006500630511998741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00511283631227968</v>
+        <v>-0.009940068982134488</v>
       </c>
       <c r="C54">
-        <v>-0.0263182129717092</v>
+        <v>-0.04338441840986353</v>
       </c>
       <c r="D54">
-        <v>0.08398829958533847</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.06201442982713139</v>
+      </c>
+      <c r="E54">
+        <v>-0.06563591927473492</v>
+      </c>
+      <c r="F54">
+        <v>-0.01608050251432724</v>
+      </c>
+      <c r="G54">
+        <v>-0.01698496236957249</v>
+      </c>
+      <c r="H54">
+        <v>-0.02033939767035614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08395521753599221</v>
+        <v>-0.04143992858992038</v>
       </c>
       <c r="C55">
-        <v>-0.1140383222637401</v>
+        <v>-0.1277862775117096</v>
       </c>
       <c r="D55">
-        <v>-0.0004552715290240493</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04814115224785154</v>
+      </c>
+      <c r="E55">
+        <v>0.01682819762966366</v>
+      </c>
+      <c r="F55">
+        <v>0.003030688452985375</v>
+      </c>
+      <c r="G55">
+        <v>-0.02111060755502567</v>
+      </c>
+      <c r="H55">
+        <v>-0.0034376484548313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1248104712479956</v>
+        <v>-0.06102567859523572</v>
       </c>
       <c r="C56">
-        <v>-0.1636112618922555</v>
+        <v>-0.1925127049869206</v>
       </c>
       <c r="D56">
-        <v>0.02077270253449438</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04359414176127691</v>
+      </c>
+      <c r="E56">
+        <v>0.04566500418675305</v>
+      </c>
+      <c r="F56">
+        <v>0.009636129232168861</v>
+      </c>
+      <c r="G56">
+        <v>-0.07010374332084109</v>
+      </c>
+      <c r="H56">
+        <v>-0.01965000061666972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00867967939538433</v>
+        <v>-0.007625743839911544</v>
       </c>
       <c r="C58">
-        <v>-0.03101472853831084</v>
+        <v>-0.07815711797417682</v>
       </c>
       <c r="D58">
-        <v>0.1858770867045222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2099000917896253</v>
+      </c>
+      <c r="E58">
+        <v>-0.1375635751902836</v>
+      </c>
+      <c r="F58">
+        <v>-0.1358893452899927</v>
+      </c>
+      <c r="G58">
+        <v>-0.1597854288639386</v>
+      </c>
+      <c r="H58">
+        <v>-0.1279324733278322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2049181113110072</v>
+        <v>-0.2604251068997748</v>
       </c>
       <c r="C59">
-        <v>0.1206347088410153</v>
+        <v>0.05519502283646308</v>
       </c>
       <c r="D59">
-        <v>0.04901756275647226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04653421481317766</v>
+      </c>
+      <c r="E59">
+        <v>0.0009511511384944889</v>
+      </c>
+      <c r="F59">
+        <v>-0.0278518415163122</v>
+      </c>
+      <c r="G59">
+        <v>-0.03698444957491698</v>
+      </c>
+      <c r="H59">
+        <v>0.02813700177791212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1725222727037304</v>
+        <v>-0.1521992426373651</v>
       </c>
       <c r="C60">
-        <v>-0.1094602626121391</v>
+        <v>-0.1660539942528651</v>
       </c>
       <c r="D60">
-        <v>0.1162956963507957</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02171662506172894</v>
+      </c>
+      <c r="E60">
+        <v>-0.1077834468036828</v>
+      </c>
+      <c r="F60">
+        <v>0.1854185552136719</v>
+      </c>
+      <c r="G60">
+        <v>0.2151173365744349</v>
+      </c>
+      <c r="H60">
+        <v>0.1664577772412374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0198440434423995</v>
+        <v>-0.01340102248123553</v>
       </c>
       <c r="C61">
-        <v>-0.05769275448655394</v>
+        <v>-0.08093813888418487</v>
       </c>
       <c r="D61">
-        <v>0.06988349277884795</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03855284849621731</v>
+      </c>
+      <c r="E61">
+        <v>-0.07723941552660021</v>
+      </c>
+      <c r="F61">
+        <v>0.001831852556896031</v>
+      </c>
+      <c r="G61">
+        <v>0.003117474674030154</v>
+      </c>
+      <c r="H61">
+        <v>0.006067797669566885</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-6.975062390950186e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0001361332484491698</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0001752876137816484</v>
+      </c>
+      <c r="E62">
+        <v>0.0003225462091426514</v>
+      </c>
+      <c r="F62">
+        <v>-0.0002456009722441486</v>
+      </c>
+      <c r="G62">
+        <v>-0.0004946022480692251</v>
+      </c>
+      <c r="H62">
+        <v>-0.0004103020289347992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.008153478224446922</v>
+        <v>-0.01559982123799272</v>
       </c>
       <c r="C63">
-        <v>-0.0299689320388564</v>
+        <v>-0.04798608919078804</v>
       </c>
       <c r="D63">
-        <v>0.06687005755433523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02992341536542328</v>
+      </c>
+      <c r="E63">
+        <v>-0.09438734606742628</v>
+      </c>
+      <c r="F63">
+        <v>-0.02535160225511397</v>
+      </c>
+      <c r="G63">
+        <v>0.00293082432197782</v>
+      </c>
+      <c r="H63">
+        <v>0.004924151484370838</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04341354007893575</v>
+        <v>-0.01507011026821992</v>
       </c>
       <c r="C64">
-        <v>-0.09702922414840194</v>
+        <v>-0.1030234862853624</v>
       </c>
       <c r="D64">
-        <v>0.01742695894742648</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.003414777326835242</v>
+      </c>
+      <c r="E64">
+        <v>-0.03236142931734599</v>
+      </c>
+      <c r="F64">
+        <v>-0.02700063451411244</v>
+      </c>
+      <c r="G64">
+        <v>0.03472206883689965</v>
+      </c>
+      <c r="H64">
+        <v>-0.02673036852730623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02587919401395815</v>
+        <v>-0.02666193631026579</v>
       </c>
       <c r="C65">
-        <v>-0.01939632442807593</v>
+        <v>-0.04856796905408362</v>
       </c>
       <c r="D65">
-        <v>0.09026119659464781</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08345806219508377</v>
+      </c>
+      <c r="E65">
+        <v>-0.09107487431400613</v>
+      </c>
+      <c r="F65">
+        <v>0.005669580079023015</v>
+      </c>
+      <c r="G65">
+        <v>0.06889700922520409</v>
+      </c>
+      <c r="H65">
+        <v>-0.001755856153158024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02162162574641211</v>
+        <v>-0.008230200788756492</v>
       </c>
       <c r="C66">
-        <v>-0.07636145764955207</v>
+        <v>-0.1140883964105278</v>
       </c>
       <c r="D66">
-        <v>0.1191183677935491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08102418067847657</v>
+      </c>
+      <c r="E66">
+        <v>-0.1097769813105547</v>
+      </c>
+      <c r="F66">
+        <v>0.002904350411507601</v>
+      </c>
+      <c r="G66">
+        <v>-0.0170226605317328</v>
+      </c>
+      <c r="H66">
+        <v>-0.005251333527149371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01517815715545088</v>
+        <v>-0.01638373537417948</v>
       </c>
       <c r="C67">
-        <v>-0.01710745950033342</v>
+        <v>-0.03505867318549565</v>
       </c>
       <c r="D67">
-        <v>0.04576317709120242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03810426382890814</v>
+      </c>
+      <c r="E67">
+        <v>-0.05198020075602355</v>
+      </c>
+      <c r="F67">
+        <v>0.01153355124310593</v>
+      </c>
+      <c r="G67">
+        <v>0.001789447113228099</v>
+      </c>
+      <c r="H67">
+        <v>-0.02397374622042087</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2192897865671823</v>
+        <v>-0.2803724422273217</v>
       </c>
       <c r="C68">
-        <v>0.1338922083828381</v>
+        <v>0.067628874531156</v>
       </c>
       <c r="D68">
-        <v>0.02876121558187106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0380952154979542</v>
+      </c>
+      <c r="E68">
+        <v>-0.01830495486870936</v>
+      </c>
+      <c r="F68">
+        <v>-0.0297695951395725</v>
+      </c>
+      <c r="G68">
+        <v>-0.04221621084202954</v>
+      </c>
+      <c r="H68">
+        <v>-0.01778986324940356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04798580183136956</v>
+        <v>-0.01457636188193453</v>
       </c>
       <c r="C69">
-        <v>-0.1183379510027885</v>
+        <v>-0.1100209314520751</v>
       </c>
       <c r="D69">
-        <v>0.06563350754849652</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01445681473128293</v>
+      </c>
+      <c r="E69">
+        <v>-0.0151665957716023</v>
+      </c>
+      <c r="F69">
+        <v>0.006809099098458303</v>
+      </c>
+      <c r="G69">
+        <v>0.005581614161578349</v>
+      </c>
+      <c r="H69">
+        <v>0.003712324542049658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2330228010643127</v>
+        <v>-0.2701839310590761</v>
       </c>
       <c r="C71">
-        <v>0.1545291373940345</v>
+        <v>0.08268214655749501</v>
       </c>
       <c r="D71">
-        <v>0.01735878223514756</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01555898979809033</v>
+      </c>
+      <c r="E71">
+        <v>0.00320330669807777</v>
+      </c>
+      <c r="F71">
+        <v>-0.01765444847653829</v>
+      </c>
+      <c r="G71">
+        <v>-0.04154140820903987</v>
+      </c>
+      <c r="H71">
+        <v>-0.0298778915756055</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09706498104676255</v>
+        <v>-0.06517341294527944</v>
       </c>
       <c r="C72">
-        <v>-0.08111678395345431</v>
+        <v>-0.1249542369189892</v>
       </c>
       <c r="D72">
-        <v>0.09097426067332701</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03015155186975123</v>
+      </c>
+      <c r="E72">
+        <v>-0.08692174036699508</v>
+      </c>
+      <c r="F72">
+        <v>0.0145499810705594</v>
+      </c>
+      <c r="G72">
+        <v>0.03770273122186343</v>
+      </c>
+      <c r="H72">
+        <v>0.009952277239895623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1703922863854393</v>
+        <v>-0.1578250726780102</v>
       </c>
       <c r="C73">
-        <v>-0.08758615503500268</v>
+        <v>-0.1701296434464627</v>
       </c>
       <c r="D73">
-        <v>0.1684568248711342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.003564229839227381</v>
+      </c>
+      <c r="E73">
+        <v>-0.2472282003509263</v>
+      </c>
+      <c r="F73">
+        <v>0.3079376113770917</v>
+      </c>
+      <c r="G73">
+        <v>0.3799826189892652</v>
+      </c>
+      <c r="H73">
+        <v>0.1966463941319615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09555007637557342</v>
+        <v>-0.05042107978115891</v>
       </c>
       <c r="C74">
-        <v>-0.1233402748184601</v>
+        <v>-0.1404086790446054</v>
       </c>
       <c r="D74">
-        <v>-0.05429495682345187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04468855116740425</v>
+      </c>
+      <c r="E74">
+        <v>0.04421370986824544</v>
+      </c>
+      <c r="F74">
+        <v>-0.03253347774958372</v>
+      </c>
+      <c r="G74">
+        <v>-0.003560401278703495</v>
+      </c>
+      <c r="H74">
+        <v>-0.007860497461178784</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2073358716262101</v>
+        <v>-0.09810656139096655</v>
       </c>
       <c r="C75">
-        <v>-0.2167759397518011</v>
+        <v>-0.2568306849971679</v>
       </c>
       <c r="D75">
-        <v>-0.03211973716230019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09491460084768777</v>
+      </c>
+      <c r="E75">
+        <v>0.135660094565629</v>
+      </c>
+      <c r="F75">
+        <v>0.06482232552390266</v>
+      </c>
+      <c r="G75">
+        <v>-0.1043445237120728</v>
+      </c>
+      <c r="H75">
+        <v>-0.1121498099059357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.127061897575909</v>
+        <v>-0.06129408438519952</v>
       </c>
       <c r="C76">
-        <v>-0.1482952197179576</v>
+        <v>-0.1780324890879868</v>
       </c>
       <c r="D76">
-        <v>0.01055613759476016</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04288884525752984</v>
+      </c>
+      <c r="E76">
+        <v>0.04846489938657348</v>
+      </c>
+      <c r="F76">
+        <v>0.01988579072027552</v>
+      </c>
+      <c r="G76">
+        <v>-0.03664922320733743</v>
+      </c>
+      <c r="H76">
+        <v>-0.006793565786845364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.007774825290957283</v>
+        <v>0.002225977132864642</v>
       </c>
       <c r="C77">
-        <v>-0.08124585114794218</v>
+        <v>-0.1288106246302118</v>
       </c>
       <c r="D77">
-        <v>0.2501008794610015</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7017022836345427</v>
+      </c>
+      <c r="E77">
+        <v>0.621933772300742</v>
+      </c>
+      <c r="F77">
+        <v>0.1281055568732813</v>
+      </c>
+      <c r="G77">
+        <v>0.1757831700692665</v>
+      </c>
+      <c r="H77">
+        <v>0.0246762817468358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02960295293638928</v>
+        <v>-0.02094117530355518</v>
       </c>
       <c r="C78">
-        <v>-0.08342693154843102</v>
+        <v>-0.09999719811094143</v>
       </c>
       <c r="D78">
-        <v>0.1431447261103289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05555437154988006</v>
+      </c>
+      <c r="E78">
+        <v>-0.1037693028293199</v>
+      </c>
+      <c r="F78">
+        <v>-0.04622314494283134</v>
+      </c>
+      <c r="G78">
+        <v>-0.1050374177166799</v>
+      </c>
+      <c r="H78">
+        <v>0.02515862570948032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1079683880006502</v>
+        <v>-0.05208221647045669</v>
       </c>
       <c r="C79">
-        <v>-0.2266859739588725</v>
+        <v>-0.2221946943821169</v>
       </c>
       <c r="D79">
-        <v>-0.6290963028904007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1591789137278188</v>
+      </c>
+      <c r="E79">
+        <v>0.1575856998913873</v>
+      </c>
+      <c r="F79">
+        <v>-0.7687188070359035</v>
+      </c>
+      <c r="G79">
+        <v>0.428768878654217</v>
+      </c>
+      <c r="H79">
+        <v>0.05014467443895457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006401599095913904</v>
+        <v>-0.009446246940853179</v>
       </c>
       <c r="C80">
-        <v>-0.04203313504376665</v>
+        <v>-0.0435594407117764</v>
       </c>
       <c r="D80">
-        <v>0.02652735264024159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.004927884993034867</v>
+      </c>
+      <c r="E80">
+        <v>-0.06394553806773025</v>
+      </c>
+      <c r="F80">
+        <v>0.001687142826447336</v>
+      </c>
+      <c r="G80">
+        <v>-0.0090298903387629</v>
+      </c>
+      <c r="H80">
+        <v>0.07642815672556405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09587295158556858</v>
+        <v>-0.03214278769401847</v>
       </c>
       <c r="C81">
-        <v>-0.141128732139614</v>
+        <v>-0.1577111870726889</v>
       </c>
       <c r="D81">
-        <v>-0.0689965934215325</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06082702067697525</v>
+      </c>
+      <c r="E81">
+        <v>0.0709559269376388</v>
+      </c>
+      <c r="F81">
+        <v>-0.05060803737882377</v>
+      </c>
+      <c r="G81">
+        <v>-0.07189096210647611</v>
+      </c>
+      <c r="H81">
+        <v>-0.008149182374184417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2000294212311882</v>
+        <v>-0.07842038498537003</v>
       </c>
       <c r="C82">
-        <v>-0.3073791225073073</v>
+        <v>-0.2891891156754802</v>
       </c>
       <c r="D82">
-        <v>-0.06103616600181528</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1833247094000295</v>
+      </c>
+      <c r="E82">
+        <v>0.158301686311561</v>
+      </c>
+      <c r="F82">
+        <v>0.128514207620436</v>
+      </c>
+      <c r="G82">
+        <v>-0.1675289115577174</v>
+      </c>
+      <c r="H82">
+        <v>-0.02318239060423513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01158672270992416</v>
+        <v>0.006623516676554219</v>
       </c>
       <c r="C83">
-        <v>-0.04623047703412499</v>
+        <v>-0.01519264007147097</v>
       </c>
       <c r="D83">
-        <v>0.00641729697260535</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03247751180154883</v>
+      </c>
+      <c r="E83">
+        <v>0.09634211744189129</v>
+      </c>
+      <c r="F83">
+        <v>-0.1324747659675069</v>
+      </c>
+      <c r="G83">
+        <v>-0.4031683291357383</v>
+      </c>
+      <c r="H83">
+        <v>0.8303844180141892</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001300279459671828</v>
+        <v>0.003478647059461795</v>
       </c>
       <c r="C84">
-        <v>-0.004700391411845018</v>
+        <v>-0.01896391455185363</v>
       </c>
       <c r="D84">
-        <v>0.009993847350133362</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03722462589855376</v>
+      </c>
+      <c r="E84">
+        <v>-0.03643907566083131</v>
+      </c>
+      <c r="F84">
+        <v>-0.03676350662139118</v>
+      </c>
+      <c r="G84">
+        <v>-0.04051680954184844</v>
+      </c>
+      <c r="H84">
+        <v>-0.05955847528602021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1239481442449521</v>
+        <v>-0.05550596286784541</v>
       </c>
       <c r="C85">
-        <v>-0.1584685769584128</v>
+        <v>-0.1775335516624087</v>
       </c>
       <c r="D85">
-        <v>-0.09191179074519761</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1174003368106571</v>
+      </c>
+      <c r="E85">
+        <v>0.0518311110350779</v>
+      </c>
+      <c r="F85">
+        <v>-0.04087478399035152</v>
+      </c>
+      <c r="G85">
+        <v>-0.01341523746940468</v>
+      </c>
+      <c r="H85">
+        <v>-0.03189154596286764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0251703475363985</v>
+        <v>-0.01576128375318144</v>
       </c>
       <c r="C86">
-        <v>-0.01050090448764471</v>
+        <v>-0.04259801849242587</v>
       </c>
       <c r="D86">
-        <v>0.08442780215838203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08911364917208567</v>
+      </c>
+      <c r="E86">
+        <v>-0.02442244077946142</v>
+      </c>
+      <c r="F86">
+        <v>-0.04826753514442952</v>
+      </c>
+      <c r="G86">
+        <v>-0.03850161578940962</v>
+      </c>
+      <c r="H86">
+        <v>-0.05194037877409693</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02206891015488954</v>
+        <v>-0.01167326311644977</v>
       </c>
       <c r="C87">
-        <v>-0.04149569602105371</v>
+        <v>-0.06866192799929272</v>
       </c>
       <c r="D87">
-        <v>0.1200206241031503</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1038683849574191</v>
+      </c>
+      <c r="E87">
+        <v>-0.08328139883853107</v>
+      </c>
+      <c r="F87">
+        <v>-0.05070536177411565</v>
+      </c>
+      <c r="G87">
+        <v>-0.07589005693569566</v>
+      </c>
+      <c r="H87">
+        <v>-0.0181650043597963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04318693712293131</v>
+        <v>-0.0346236475689084</v>
       </c>
       <c r="C88">
-        <v>-0.05475769988146018</v>
+        <v>-0.07145224594990121</v>
       </c>
       <c r="D88">
-        <v>-0.001212108895304945</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.006259903355979314</v>
+      </c>
+      <c r="E88">
+        <v>-0.03052569076811898</v>
+      </c>
+      <c r="F88">
+        <v>-0.01437431902184192</v>
+      </c>
+      <c r="G88">
+        <v>0.01813977913084231</v>
+      </c>
+      <c r="H88">
+        <v>0.000231977884944635</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3511520620442826</v>
+        <v>-0.3990857405300958</v>
       </c>
       <c r="C89">
-        <v>0.2840459725010888</v>
+        <v>0.1601468766832322</v>
       </c>
       <c r="D89">
-        <v>0.01165213307842121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04563027230863937</v>
+      </c>
+      <c r="E89">
+        <v>0.00517300679210308</v>
+      </c>
+      <c r="F89">
+        <v>-0.0635560723577468</v>
+      </c>
+      <c r="G89">
+        <v>-0.07187420796297708</v>
+      </c>
+      <c r="H89">
+        <v>0.08906838549498777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2825670816317871</v>
+        <v>-0.3227252154198457</v>
       </c>
       <c r="C90">
-        <v>0.2066956485496224</v>
+        <v>0.1015096731923013</v>
       </c>
       <c r="D90">
-        <v>0.06337234816812752</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03378618798393668</v>
+      </c>
+      <c r="E90">
+        <v>-0.01434757100713427</v>
+      </c>
+      <c r="F90">
+        <v>0.01213705912075169</v>
+      </c>
+      <c r="G90">
+        <v>-0.0548283292987758</v>
+      </c>
+      <c r="H90">
+        <v>-0.006313680475630348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1319052329694199</v>
+        <v>-0.06425937717470814</v>
       </c>
       <c r="C91">
-        <v>-0.2001833845867155</v>
+        <v>-0.1996647473475832</v>
       </c>
       <c r="D91">
-        <v>-0.09646584699175823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08424725456523541</v>
+      </c>
+      <c r="E91">
+        <v>0.1147775451053583</v>
+      </c>
+      <c r="F91">
+        <v>-0.05232781995097457</v>
+      </c>
+      <c r="G91">
+        <v>-0.02737273574978495</v>
+      </c>
+      <c r="H91">
+        <v>0.006493138670891864</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2676456091613423</v>
+        <v>-0.3369874569192335</v>
       </c>
       <c r="C92">
-        <v>0.2380101291561348</v>
+        <v>0.1456688942325883</v>
       </c>
       <c r="D92">
-        <v>-0.03319659465998653</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04378240982378463</v>
+      </c>
+      <c r="E92">
+        <v>0.0487138257658265</v>
+      </c>
+      <c r="F92">
+        <v>-0.05057747796393174</v>
+      </c>
+      <c r="G92">
+        <v>-0.00618382295632963</v>
+      </c>
+      <c r="H92">
+        <v>-0.1364323085983068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2979639274144165</v>
+        <v>-0.3303107248457221</v>
       </c>
       <c r="C93">
-        <v>0.2177578030895027</v>
+        <v>0.1198516050721662</v>
       </c>
       <c r="D93">
-        <v>-0.03074495935475097</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02296904089056371</v>
+      </c>
+      <c r="E93">
+        <v>0.00427781402542007</v>
+      </c>
+      <c r="F93">
+        <v>-0.01391711276623103</v>
+      </c>
+      <c r="G93">
+        <v>0.0203398296503572</v>
+      </c>
+      <c r="H93">
+        <v>-0.03728627006812753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2441860349241461</v>
+        <v>-0.1219102227892767</v>
       </c>
       <c r="C94">
-        <v>-0.2835530756306082</v>
+        <v>-0.3108455277923104</v>
       </c>
       <c r="D94">
-        <v>-0.1276584480461757</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.2865671971469632</v>
+      </c>
+      <c r="E94">
+        <v>0.2113283542912503</v>
+      </c>
+      <c r="F94">
+        <v>0.1802275749770512</v>
+      </c>
+      <c r="G94">
+        <v>-0.2639731102339025</v>
+      </c>
+      <c r="H94">
+        <v>-0.1315917010840035</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.004119065254714047</v>
+        <v>-0.0149784311315464</v>
       </c>
       <c r="C95">
-        <v>-0.05962129634515826</v>
+        <v>-0.08297835183075512</v>
       </c>
       <c r="D95">
-        <v>0.1092431762081869</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1447588611926995</v>
+      </c>
+      <c r="E95">
+        <v>0.03183655184494189</v>
+      </c>
+      <c r="F95">
+        <v>0.03544522389822301</v>
+      </c>
+      <c r="G95">
+        <v>0.06930571657711326</v>
+      </c>
+      <c r="H95">
+        <v>0.02799955804057395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002199735386426363</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008745471512725108</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0004743060426340629</v>
+      </c>
+      <c r="E97">
+        <v>-0.003588463425997364</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003599695923255004</v>
+      </c>
+      <c r="G97">
+        <v>-0.0003731529313536262</v>
+      </c>
+      <c r="H97">
+        <v>-0.005427880783811592</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1440039019489975</v>
+        <v>-0.1332083794199088</v>
       </c>
       <c r="C98">
-        <v>-0.1008524646653768</v>
+        <v>-0.162580801983694</v>
       </c>
       <c r="D98">
-        <v>0.1185909329856096</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01416760400761744</v>
+      </c>
+      <c r="E98">
+        <v>-0.155705123819868</v>
+      </c>
+      <c r="F98">
+        <v>0.2530931581703745</v>
+      </c>
+      <c r="G98">
+        <v>0.2844956581089102</v>
+      </c>
+      <c r="H98">
+        <v>0.1672269199172178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0001762297701265878</v>
+        <v>-0.001366197114542397</v>
       </c>
       <c r="C101">
-        <v>-0.02100806640743845</v>
+        <v>-0.04155678819027032</v>
       </c>
       <c r="D101">
-        <v>0.06735734503218573</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.06182716775239581</v>
+      </c>
+      <c r="E101">
+        <v>-0.1217564073087706</v>
+      </c>
+      <c r="F101">
+        <v>-0.04519951884397351</v>
+      </c>
+      <c r="G101">
+        <v>-0.005097283320174916</v>
+      </c>
+      <c r="H101">
+        <v>0.05936218150282307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08154474027233993</v>
+        <v>-0.01931908313358066</v>
       </c>
       <c r="C102">
-        <v>-0.1606679790490368</v>
+        <v>-0.1300805464700495</v>
       </c>
       <c r="D102">
-        <v>0.002884729440049255</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0731335978508576</v>
+      </c>
+      <c r="E102">
+        <v>0.07626484766295248</v>
+      </c>
+      <c r="F102">
+        <v>0.07305006712956641</v>
+      </c>
+      <c r="G102">
+        <v>-0.04048562990685254</v>
+      </c>
+      <c r="H102">
+        <v>0.01066361444527483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
